--- a/reference/model/Type 1A 總組合 組合1 BOM表.xlsx
+++ b/reference/model/Type 1A 總組合 組合1 BOM表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI-optimization\六連桿尺寸合成及計算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ou918\Downloads\AI-optimization\reference\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E517C-7B24-4633-9498-90553EE06289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CD9084-7B8F-41B0-86CA-DE0AAD274F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -157,6 +157,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -226,6 +229,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,25 +517,26 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L9" sqref="L9:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6">
+    <row r="1" spans="1:15" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -576,7 +583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.6">
+    <row r="2" spans="1:15" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -653,7 +660,7 @@
       <c r="K3" s="4">
         <v>370913265.68685102</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>236418801.58539301</v>
       </c>
       <c r="M3" s="4">
@@ -700,7 +707,7 @@
       <c r="K4" s="4">
         <v>4838763.2230319995</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>147687.76427000001</v>
       </c>
       <c r="M4" s="4">
@@ -747,7 +754,7 @@
       <c r="K5" s="4">
         <v>922134.43984200002</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>405993.80257200002</v>
       </c>
       <c r="M5" s="4">
@@ -794,7 +801,7 @@
       <c r="K6" s="4">
         <v>8448853.8071030006</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <v>917172.37400800001</v>
       </c>
       <c r="M6" s="4">
@@ -841,7 +848,7 @@
       <c r="K7" s="4">
         <v>5159499.6852670005</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="5">
         <v>1362319.584208</v>
       </c>
       <c r="M7" s="4">
@@ -859,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="2">
-        <v>358.31364740425778</v>
+        <v>127.70699999999999</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -868,10 +875,10 @@
         <v>7.8499930000000004</v>
       </c>
       <c r="E8" s="4">
-        <v>265.59875399999999</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>-27.440705000000001</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -888,8 +895,8 @@
       <c r="K8" s="4">
         <v>19551817.625999</v>
       </c>
-      <c r="L8" s="2">
-        <v>6616723.6846860005</v>
+      <c r="L8" s="5">
+        <v>1041918.624</v>
       </c>
       <c r="M8" s="4">
         <v>423429.53660300002</v>
@@ -935,7 +942,7 @@
       <c r="K9" s="4">
         <v>156039.68690100001</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <v>287.325669</v>
       </c>
       <c r="M9" s="4">
@@ -982,7 +989,7 @@
       <c r="K10" s="4">
         <v>156039.68689700001</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>287.325669</v>
       </c>
       <c r="M10" s="4">
@@ -1029,7 +1036,7 @@
       <c r="K11" s="4">
         <v>156039.686908</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="5">
         <v>287.325669</v>
       </c>
       <c r="M11" s="4">
